--- a/src/excel/AntigenSupportingData- TBE-508.xlsx
+++ b/src/excel/AntigenSupportingData- TBE-508.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tmp\Play CDS XML\Version 4.59 - 508\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tmp\Play CDS XML\Version 4.63 - 508 - DRAFT\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7ADE604-2844-414F-A014-2C2068F3CA9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F41BBD4D-2849-4293-9F1E-FB5474DD91B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -498,12 +498,6 @@
     <t>≥16 yrs</t>
   </si>
   <si>
-    <t>≥1 yr-4 d to &lt; 16 yrs</t>
-  </si>
-  <si>
-    <t>≥1 yr-4 d</t>
-  </si>
-  <si>
     <t>TICOVAC (PFR)</t>
   </si>
   <si>
@@ -653,6 +647,12 @@
   </si>
   <si>
     <t>Publication Date: 11/08/2024</t>
+  </si>
+  <si>
+    <t>≥1 yr - 4 days</t>
+  </si>
+  <si>
+    <t>≥1 yr - 4 days to &lt; 16 yrs</t>
   </si>
 </sst>
 </file>
@@ -2467,7 +2467,7 @@
         <v>0</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C18" s="126"/>
       <c r="D18" s="126"/>
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C19" s="126"/>
       <c r="D19" s="126"/>
@@ -2497,7 +2497,7 @@
         <v>0</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C20" s="126"/>
       <c r="D20" s="126"/>
@@ -2512,7 +2512,7 @@
         <v>0</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C21" s="126"/>
       <c r="D21" s="126"/>
@@ -2527,7 +2527,7 @@
         <v>0</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C22" s="126"/>
       <c r="D22" s="126"/>
@@ -2575,7 +2575,7 @@
         <v>130</v>
       </c>
       <c r="D26" s="109" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E26" s="109"/>
       <c r="F26" s="110"/>
@@ -2596,7 +2596,7 @@
         <v>130</v>
       </c>
       <c r="D27" s="140" t="s">
-        <v>143</v>
+        <v>192</v>
       </c>
       <c r="E27" s="111"/>
       <c r="F27" s="110"/>
@@ -2617,10 +2617,10 @@
         <v>140</v>
       </c>
       <c r="D28" s="140" t="s">
+        <v>193</v>
+      </c>
+      <c r="E28" s="111" t="s">
         <v>142</v>
-      </c>
-      <c r="E28" s="111" t="s">
-        <v>144</v>
       </c>
       <c r="F28" s="142">
         <v>0.25</v>
@@ -2642,10 +2642,10 @@
         <v>141</v>
       </c>
       <c r="D29" s="140" t="s">
-        <v>143</v>
+        <v>192</v>
       </c>
       <c r="E29" s="111" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F29" s="143">
         <v>0.5</v>
@@ -2668,10 +2668,10 @@
     </row>
     <row r="31" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A31" s="30" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B31" s="147" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C31" s="145"/>
       <c r="D31" s="145"/>
@@ -2693,10 +2693,10 @@
     </row>
     <row r="33" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A33" s="30" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B33" s="147" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C33" s="145"/>
       <c r="D33" s="145"/>
@@ -2734,7 +2734,7 @@
         <v>4.59</v>
       </c>
       <c r="C1" s="141" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -2763,7 +2763,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="48" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D3" s="48" t="s">
         <v>10</v>
@@ -2772,7 +2772,7 @@
         <v>10</v>
       </c>
       <c r="F3" s="49" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.25">
@@ -2783,7 +2783,7 @@
         <v>4.55</v>
       </c>
       <c r="C5" s="141" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -2812,16 +2812,16 @@
         <v>1</v>
       </c>
       <c r="C7" s="48" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D7" s="47" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E7" s="47" t="s">
+        <v>171</v>
+      </c>
+      <c r="F7" s="49" t="s">
         <v>173</v>
-      </c>
-      <c r="F7" s="49" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -2830,16 +2830,16 @@
         <v>2</v>
       </c>
       <c r="C8" s="48" t="s">
+        <v>174</v>
+      </c>
+      <c r="D8" s="47" t="s">
         <v>176</v>
       </c>
-      <c r="D8" s="47" t="s">
-        <v>178</v>
-      </c>
       <c r="E8" s="47" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F8" s="49" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.25">
@@ -2850,7 +2850,7 @@
         <v>4.5199999999999996</v>
       </c>
       <c r="C10" s="141" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -2888,7 +2888,7 @@
         <v>69</v>
       </c>
       <c r="F12" s="49" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -2931,13 +2931,13 @@
         <v>121</v>
       </c>
       <c r="B2" s="130" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C2" s="131" t="s">
         <v>126</v>
       </c>
       <c r="D2" s="132" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E2" s="133" t="s">
         <v>10</v>
@@ -3079,10 +3079,10 @@
         <v>112</v>
       </c>
       <c r="B3" s="75" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D3" s="60" t="s">
         <v>10</v>
@@ -3174,7 +3174,7 @@
         <v>11</v>
       </c>
       <c r="B1" s="144" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C1" s="145"/>
       <c r="D1" s="146"/>
@@ -3186,7 +3186,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="56" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="3"/>
@@ -3197,7 +3197,7 @@
         <v>13</v>
       </c>
       <c r="B3" s="106" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C3" s="65"/>
       <c r="I3" s="85"/>
@@ -3217,7 +3217,7 @@
         <v>83</v>
       </c>
       <c r="B5" s="46" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I5" s="85"/>
     </row>
@@ -3337,7 +3337,7 @@
         <v>1</v>
       </c>
       <c r="H13" s="96" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I13" s="96" t="s">
         <v>10</v>
@@ -3369,19 +3369,19 @@
         <v>113</v>
       </c>
       <c r="B15" s="46" t="s">
+        <v>148</v>
+      </c>
+      <c r="C15" s="46" t="s">
+        <v>149</v>
+      </c>
+      <c r="D15" s="137" t="s">
         <v>150</v>
       </c>
-      <c r="C15" s="46" t="s">
+      <c r="E15" s="137" t="s">
         <v>151</v>
       </c>
-      <c r="D15" s="137" t="s">
+      <c r="F15" s="46" t="s">
         <v>152</v>
-      </c>
-      <c r="E15" s="137" t="s">
-        <v>153</v>
-      </c>
-      <c r="F15" s="46" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="180" x14ac:dyDescent="0.25">
@@ -3389,19 +3389,19 @@
         <v>113</v>
       </c>
       <c r="B16" s="46" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C16" s="46" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D16" s="137" t="s">
+        <v>150</v>
+      </c>
+      <c r="E16" s="137" t="s">
+        <v>151</v>
+      </c>
+      <c r="F16" s="46" t="s">
         <v>152</v>
-      </c>
-      <c r="E16" s="137" t="s">
-        <v>153</v>
-      </c>
-      <c r="F16" s="46" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -3454,13 +3454,13 @@
         <v>20</v>
       </c>
       <c r="B20" s="90" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C20" s="96" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D20" s="96" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E20" s="96" t="s">
         <v>10</v>
@@ -3630,10 +3630,10 @@
         <v>138</v>
       </c>
       <c r="C26" s="96" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D26" s="60" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E26" s="60" t="s">
         <v>10</v>
@@ -3671,7 +3671,7 @@
         <v>137</v>
       </c>
       <c r="C28" s="90" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D28" s="60" t="s">
         <v>10</v>
@@ -3687,10 +3687,10 @@
         <v>138</v>
       </c>
       <c r="C29" s="90" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D29" s="60" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E29" s="55"/>
       <c r="I29" s="85"/>
@@ -3703,7 +3703,7 @@
         <v>139</v>
       </c>
       <c r="C30" s="90" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D30" s="60" t="s">
         <v>10</v>
@@ -4074,7 +4074,7 @@
         <v>71</v>
       </c>
       <c r="I44" s="96" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J44" s="78" t="s">
         <v>10</v>
@@ -4164,10 +4164,10 @@
         <v>138</v>
       </c>
       <c r="C48" s="96" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D48" s="60" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E48" s="60" t="s">
         <v>10</v>
@@ -4205,7 +4205,7 @@
         <v>137</v>
       </c>
       <c r="C50" s="90" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D50" s="60" t="s">
         <v>10</v>
@@ -4221,10 +4221,10 @@
         <v>138</v>
       </c>
       <c r="C51" s="90" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D51" s="60" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E51" s="55"/>
       <c r="I51" s="85"/>
@@ -4237,7 +4237,7 @@
         <v>139</v>
       </c>
       <c r="C52" s="90" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D52" s="60" t="s">
         <v>10</v>
@@ -4592,13 +4592,13 @@
         <v>10</v>
       </c>
       <c r="F66" s="18" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G66" s="18" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H66" s="18" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I66" s="96" t="s">
         <v>135</v>
@@ -4691,10 +4691,10 @@
         <v>138</v>
       </c>
       <c r="C70" s="96" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D70" s="60" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E70" s="60" t="s">
         <v>10</v>
@@ -4732,7 +4732,7 @@
         <v>137</v>
       </c>
       <c r="C72" s="90" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D72" s="60" t="s">
         <v>10</v>
@@ -4748,10 +4748,10 @@
         <v>138</v>
       </c>
       <c r="C73" s="90" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D73" s="60" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E73" s="55"/>
       <c r="I73" s="85"/>
@@ -4764,7 +4764,7 @@
         <v>139</v>
       </c>
       <c r="C74" s="90" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D74" s="60" t="s">
         <v>10</v>
@@ -5002,7 +5002,7 @@
         <v>18</v>
       </c>
       <c r="B84" s="139" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C84" s="7"/>
       <c r="D84" s="1"/>
@@ -5119,7 +5119,7 @@
         <v>10</v>
       </c>
       <c r="F88" s="18" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G88" s="18" t="s">
         <v>87</v>
@@ -5218,10 +5218,10 @@
         <v>138</v>
       </c>
       <c r="C92" s="96" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D92" s="60" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E92" s="60" t="s">
         <v>10</v>
@@ -5259,7 +5259,7 @@
         <v>137</v>
       </c>
       <c r="C94" s="90" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D94" s="60" t="s">
         <v>10</v>
@@ -5275,10 +5275,10 @@
         <v>138</v>
       </c>
       <c r="C95" s="90" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D95" s="60" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E95" s="55"/>
       <c r="I95" s="85"/>
@@ -5291,7 +5291,7 @@
         <v>139</v>
       </c>
       <c r="C96" s="90" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D96" s="60" t="s">
         <v>10</v>
@@ -5548,7 +5548,7 @@
         <v>11</v>
       </c>
       <c r="B1" s="144" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C1" s="145"/>
       <c r="D1" s="146"/>
@@ -5560,7 +5560,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="56" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="3"/>
@@ -5571,7 +5571,7 @@
         <v>13</v>
       </c>
       <c r="B3" s="106" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C3" s="65"/>
       <c r="I3" s="85"/>
@@ -5591,7 +5591,7 @@
         <v>83</v>
       </c>
       <c r="B5" s="46" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I5" s="85"/>
     </row>
@@ -5711,7 +5711,7 @@
         <v>1</v>
       </c>
       <c r="H13" s="96" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I13" s="96" t="s">
         <v>10</v>
@@ -5743,19 +5743,19 @@
         <v>113</v>
       </c>
       <c r="B15" s="46" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C15" s="46" t="s">
+        <v>149</v>
+      </c>
+      <c r="D15" s="137" t="s">
         <v>151</v>
       </c>
-      <c r="D15" s="137" t="s">
-        <v>153</v>
-      </c>
       <c r="E15" s="137" t="s">
         <v>10</v>
       </c>
       <c r="F15" s="46" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="180" x14ac:dyDescent="0.25">
@@ -5763,19 +5763,19 @@
         <v>113</v>
       </c>
       <c r="B16" s="46" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C16" s="46" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D16" s="137" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E16" s="137" t="s">
         <v>10</v>
       </c>
       <c r="F16" s="46" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="75" x14ac:dyDescent="0.25">
@@ -5783,13 +5783,13 @@
         <v>113</v>
       </c>
       <c r="B17" s="46" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C17" s="46" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D17" s="137" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E17" s="137" t="s">
         <v>10</v>
@@ -5848,13 +5848,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="96" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C21" s="96" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D21" s="96" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E21" s="96" t="s">
         <v>10</v>
@@ -6024,7 +6024,7 @@
         <v>139</v>
       </c>
       <c r="C27" s="96" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D27" s="60" t="s">
         <v>10</v>
@@ -6065,7 +6065,7 @@
         <v>137</v>
       </c>
       <c r="C29" s="90" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D29" s="60" t="s">
         <v>10</v>
@@ -6081,10 +6081,10 @@
         <v>138</v>
       </c>
       <c r="C30" s="90" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D30" s="60" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E30" s="55"/>
       <c r="I30" s="85"/>
@@ -6097,7 +6097,7 @@
         <v>139</v>
       </c>
       <c r="C31" s="90" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D31" s="60" t="s">
         <v>10</v>
@@ -6459,16 +6459,16 @@
         <v>10</v>
       </c>
       <c r="F45" s="96" t="s">
+        <v>164</v>
+      </c>
+      <c r="G45" s="96" t="s">
+        <v>165</v>
+      </c>
+      <c r="H45" s="96" t="s">
+        <v>165</v>
+      </c>
+      <c r="I45" s="96" t="s">
         <v>166</v>
-      </c>
-      <c r="G45" s="96" t="s">
-        <v>167</v>
-      </c>
-      <c r="H45" s="96" t="s">
-        <v>167</v>
-      </c>
-      <c r="I45" s="96" t="s">
-        <v>168</v>
       </c>
       <c r="J45" s="78" t="s">
         <v>10</v>
@@ -6558,7 +6558,7 @@
         <v>139</v>
       </c>
       <c r="C49" s="96" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D49" s="60" t="s">
         <v>10</v>
@@ -6599,7 +6599,7 @@
         <v>137</v>
       </c>
       <c r="C51" s="90" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D51" s="60" t="s">
         <v>10</v>
@@ -6615,10 +6615,10 @@
         <v>138</v>
       </c>
       <c r="C52" s="90" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D52" s="60" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E52" s="55"/>
       <c r="I52" s="85"/>
@@ -6631,7 +6631,7 @@
         <v>139</v>
       </c>
       <c r="C53" s="90" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D53" s="60" t="s">
         <v>10</v>
@@ -6986,13 +6986,13 @@
         <v>10</v>
       </c>
       <c r="F67" s="18" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G67" s="18" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H67" s="18" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I67" s="96" t="s">
         <v>135</v>
@@ -7085,7 +7085,7 @@
         <v>139</v>
       </c>
       <c r="C71" s="96" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D71" s="60" t="s">
         <v>10</v>
@@ -7126,7 +7126,7 @@
         <v>137</v>
       </c>
       <c r="C73" s="90" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D73" s="60" t="s">
         <v>10</v>
@@ -7142,10 +7142,10 @@
         <v>138</v>
       </c>
       <c r="C74" s="90" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D74" s="60" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E74" s="55"/>
       <c r="I74" s="85"/>
@@ -7158,7 +7158,7 @@
         <v>139</v>
       </c>
       <c r="C75" s="90" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D75" s="60" t="s">
         <v>10</v>
@@ -7396,7 +7396,7 @@
         <v>18</v>
       </c>
       <c r="B85" s="139" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C85" s="7"/>
       <c r="D85" s="1"/>
@@ -7513,7 +7513,7 @@
         <v>10</v>
       </c>
       <c r="F89" s="18" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G89" s="18" t="s">
         <v>87</v>
@@ -7612,7 +7612,7 @@
         <v>139</v>
       </c>
       <c r="C93" s="96" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D93" s="60" t="s">
         <v>10</v>
@@ -7653,7 +7653,7 @@
         <v>137</v>
       </c>
       <c r="C95" s="90" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D95" s="60" t="s">
         <v>10</v>
@@ -7669,10 +7669,10 @@
         <v>138</v>
       </c>
       <c r="C96" s="90" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D96" s="60" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E96" s="55"/>
       <c r="I96" s="85"/>
@@ -7685,7 +7685,7 @@
         <v>139</v>
       </c>
       <c r="C97" s="90" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D97" s="60" t="s">
         <v>10</v>
